--- a/qualtcom/Organizacional/Medicion y Monitoreo/Concentrado_Métricas-310315.xlsx
+++ b/qualtcom/Organizacional/Medicion y Monitoreo/Concentrado_Métricas-310315.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="0" windowWidth="16605" windowHeight="9435" tabRatio="835" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="1470" yWindow="0" windowWidth="16605" windowHeight="9435" tabRatio="835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de esfuerzo" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
   <si>
     <t>&lt;Periodo&gt;</t>
   </si>
@@ -139,6 +139,15 @@
   <si>
     <t>Marzo</t>
   </si>
+  <si>
+    <t>Catalogo de servicios</t>
+  </si>
+  <si>
+    <t>Medicion-Monitoreo</t>
+  </si>
+  <si>
+    <t>Configuracion</t>
+  </si>
 </sst>
 </file>
 
@@ -215,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +261,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -313,6 +328,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -415,7 +443,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -455,12 +483,7 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,7 +515,39 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,70 +650,7 @@
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
     <cellStyle name="Porcentaje 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <fill>
         <patternFill>
@@ -1134,9 +1126,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Desviacion de esfuerzo'!$B$20:$C$23</c:f>
+              <c:f>'Desviacion de esfuerzo'!$B$20:$C$26</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Preventivo</c:v>
@@ -1158,16 +1150,25 @@
                   <c:pt idx="2">
                     <c:v>Planeación</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Medicion-Monitoreo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Calidad</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Configuracion</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$D$20:$D$23</c:f>
+              <c:f>'Desviacion de esfuerzo'!$D$20:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>140</c:v>
                 </c:pt>
@@ -1179,6 +1180,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>91.200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,9 +1216,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Desviacion de esfuerzo'!$B$20:$C$23</c:f>
+              <c:f>'Desviacion de esfuerzo'!$B$20:$C$26</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Preventivo</c:v>
@@ -1230,16 +1240,25 @@
                   <c:pt idx="2">
                     <c:v>Planeación</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Medicion-Monitoreo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Calidad</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Configuracion</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$E$20:$E$23</c:f>
+              <c:f>'Desviacion de esfuerzo'!$E$20:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>31</c:v>
                 </c:pt>
@@ -1251,6 +1270,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,11 +1298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2062976"/>
-        <c:axId val="2063536"/>
+        <c:axId val="4488368"/>
+        <c:axId val="4488928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2062976"/>
+        <c:axId val="4488368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1312,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063536"/>
+        <c:crossAx val="4488928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1292,7 +1320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063536"/>
+        <c:axId val="4488928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1331,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062976"/>
+        <c:crossAx val="4488368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,7 +1382,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1418,11 +1445,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="252943664"/>
-        <c:axId val="258456768"/>
+        <c:axId val="176901840"/>
+        <c:axId val="176902400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="252943664"/>
+        <c:axId val="176901840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1459,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258456768"/>
+        <c:crossAx val="176902400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1440,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258456768"/>
+        <c:axId val="176902400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1452,7 +1479,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252943664"/>
+        <c:crossAx val="176901840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1510,7 +1537,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1523,6 +1549,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1544,6 +1581,57 @@
           <c:val>
             <c:numRef>
               <c:f>'Indice de Satisfacción'!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Indice de Satisfacción'!$D$4:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Qualtop</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SYE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HTBP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Indice de Satisfacción'!$F$4:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1569,11 +1657,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="258458448"/>
-        <c:axId val="258460128"/>
+        <c:axId val="176905760"/>
+        <c:axId val="176906320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="258458448"/>
+        <c:axId val="176905760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1671,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258460128"/>
+        <c:crossAx val="176906320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1591,7 +1679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258460128"/>
+        <c:axId val="176906320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1603,7 +1691,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258458448"/>
+        <c:crossAx val="176905760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1682,9 +1770,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Desviacion de esfuerzo'!$B$20:$C$23</c:f>
+              <c:f>'Desviacion de esfuerzo'!$B$20:$C$26</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Preventivo</c:v>
@@ -1706,16 +1794,25 @@
                   <c:pt idx="2">
                     <c:v>Planeación</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Medicion-Monitoreo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Calidad</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Configuracion</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Desviacion de esfuerzo'!$F$20:$F$23</c:f>
+              <c:f>'Desviacion de esfuerzo'!$F$20:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.77857142857142858</c:v>
                 </c:pt>
@@ -1727,6 +1824,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.5614035087719299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65999999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1746,11 +1852,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2056256"/>
-        <c:axId val="104194784"/>
+        <c:axId val="4491728"/>
+        <c:axId val="4492288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2056256"/>
+        <c:axId val="4491728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +1866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104194784"/>
+        <c:crossAx val="4492288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1768,7 +1874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104194784"/>
+        <c:axId val="4492288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1781,7 +1887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056256"/>
+        <c:crossAx val="4491728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1927,7 +2033,7 @@
                   <c:v>4329.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>3123.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,11 +2053,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104193664"/>
-        <c:axId val="104191984"/>
+        <c:axId val="151480176"/>
+        <c:axId val="151480736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104193664"/>
+        <c:axId val="151480176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +2067,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104191984"/>
+        <c:crossAx val="151480736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1969,7 +2075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104191984"/>
+        <c:axId val="151480736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,7 +2086,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104193664"/>
+        <c:crossAx val="151480176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2081,7 +2187,7 @@
                   <c:v>0.6284561915386595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29747283415265569</c:v>
+                  <c:v>0.45143166254810119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,11 +2207,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104189744"/>
-        <c:axId val="104189184"/>
+        <c:axId val="151483536"/>
+        <c:axId val="151484096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104189744"/>
+        <c:axId val="151483536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104189184"/>
+        <c:crossAx val="151484096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2123,7 +2229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104189184"/>
+        <c:axId val="151484096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2136,7 +2242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104189744"/>
+        <c:crossAx val="151483536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2227,7 +2333,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2247,11 +2353,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="103580176"/>
-        <c:axId val="103577936"/>
+        <c:axId val="151243488"/>
+        <c:axId val="151244048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103580176"/>
+        <c:axId val="151243488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2367,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103577936"/>
+        <c:crossAx val="151244048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2269,7 +2375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103577936"/>
+        <c:axId val="151244048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,7 +2386,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103580176"/>
+        <c:crossAx val="151243488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2371,13 +2477,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,11 +2503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="103578496"/>
-        <c:axId val="103575696"/>
+        <c:axId val="151246848"/>
+        <c:axId val="151247408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103578496"/>
+        <c:axId val="151246848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2517,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103575696"/>
+        <c:crossAx val="151247408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2419,7 +2525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103575696"/>
+        <c:axId val="151247408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2431,7 +2537,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103578496"/>
+        <c:crossAx val="151246848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2500,9 +2606,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Productos'!$C$4:$C$6</c:f>
+              <c:f>'Apego a Productos'!$C$4:$C$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Plan estratégico</c:v>
                 </c:pt>
@@ -2510,6 +2616,9 @@
                   <c:v>Estimación</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Catalogo de servicios</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Reporte de monitoreo</c:v>
                 </c:pt>
               </c:strCache>
@@ -2517,10 +2626,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Productos'!$G$4:$G$6</c:f>
+              <c:f>'Apego a Productos'!$G$4:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2528,6 +2637,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2548,11 +2660,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="256263952"/>
-        <c:axId val="256264512"/>
+        <c:axId val="151250208"/>
+        <c:axId val="151250768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="256263952"/>
+        <c:axId val="151250208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2562,7 +2674,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256264512"/>
+        <c:crossAx val="151250768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2570,7 +2682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256264512"/>
+        <c:axId val="151250768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2582,7 +2694,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256263952"/>
+        <c:crossAx val="151250208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2651,7 +2763,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Apego a Productos'!$C$10:$C$12</c:f>
+              <c:f>'Apego a Productos'!$C$11:$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2668,15 +2780,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Apego a Productos'!$G$10:$G$12</c:f>
+              <c:f>'Apego a Productos'!$G$11:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2699,11 +2811,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="256261152"/>
-        <c:axId val="256261712"/>
+        <c:axId val="101426928"/>
+        <c:axId val="101427488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="256261152"/>
+        <c:axId val="101426928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2713,7 +2825,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256261712"/>
+        <c:crossAx val="101427488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2721,7 +2833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256261712"/>
+        <c:axId val="101427488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2733,7 +2845,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256261152"/>
+        <c:crossAx val="101426928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2786,7 +2898,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2850,11 +2961,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="252940304"/>
-        <c:axId val="252938064"/>
+        <c:axId val="101430288"/>
+        <c:axId val="101430848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="252940304"/>
+        <c:axId val="101430288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2975,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252938064"/>
+        <c:crossAx val="101430848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2872,7 +2983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252938064"/>
+        <c:axId val="101430848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2884,7 +2995,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252940304"/>
+        <c:crossAx val="101430288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2917,10 +3028,10 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2948,15 +3059,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>116417</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>162984</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3150,13 +3261,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3186,13 +3297,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3631,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="B14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3668,7 +3779,7 @@
     <row r="17" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:22" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:22" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="17" t="s">
@@ -3677,81 +3788,126 @@
       <c r="E19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="39">
         <v>140</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="39">
         <v>31</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="40">
         <f>(D20-E20)/D20</f>
         <v>0.77857142857142858</v>
       </c>
     </row>
     <row r="21" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="39">
         <v>140</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="39">
         <v>9</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="40">
         <f t="shared" ref="F21:F23" si="0">(D21-E21)/D21</f>
         <v>0.93571428571428572</v>
       </c>
     </row>
     <row r="22" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="39">
         <v>45.600000000000009</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="39">
         <v>30</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="40">
         <f t="shared" si="0"/>
         <v>0.34210526315789486</v>
       </c>
     </row>
     <row r="23" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="39">
         <v>91.200000000000017</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="39">
         <v>40</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="40">
         <f t="shared" si="0"/>
         <v>0.5614035087719299</v>
       </c>
     </row>
-    <row r="24" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="36">
+        <v>1</v>
+      </c>
+      <c r="E24" s="36">
+        <v>1</v>
+      </c>
+      <c r="F24" s="38">
+        <f>(D24-E24)/D24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="36">
+        <v>2</v>
+      </c>
+      <c r="E25" s="36">
+        <v>1.6</v>
+      </c>
+      <c r="F25" s="38">
+        <f t="shared" ref="F25:F26" si="1">(D25-E25)/D25</f>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="F26" s="38">
+        <f t="shared" si="1"/>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
     <row r="27" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
@@ -4236,7 +4392,7 @@
     <mergeCell ref="B20:B21"/>
   </mergeCells>
   <conditionalFormatting sqref="A29:XFD1048576">
-    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="57" priority="63" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison5!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4255,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4328,11 +4484,11 @@
         <v>5693.7300000000005</v>
       </c>
       <c r="D21" s="15">
-        <v>4000</v>
+        <v>3123.4</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" ref="E21" si="0">(C21-D21)/C21</f>
-        <v>0.29747283415265569</v>
+        <v>0.45143166254810119</v>
       </c>
     </row>
     <row r="22" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4347,7 +4503,7 @@
     <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A27:XFD1048576">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison5!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4362,8 +4518,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,96 +4539,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>150228</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>150331</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="23">
         <v>1</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="26">
         <f>AVERAGE(D4:F4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="23">
         <v>0.8</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="26">
         <f>AVERAGE(D5:F5)</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+      <c r="B6" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="26">
-        <v>1</v>
-      </c>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="29">
+      <c r="F6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="26" t="e">
         <f>AVERAGE(D6:F6)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -4480,164 +4636,164 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="33">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="30">
         <v>150227</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>150331</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="27"/>
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="21">
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="27">
-        <v>1</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="31">
+      <c r="D10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="28" t="e">
         <f t="shared" ref="G10:G12" si="0">AVERAGE(D10:F10)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
+      <c r="B11" s="18">
         <v>2</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="27">
-        <v>1</v>
-      </c>
-      <c r="E11" s="27">
-        <v>1</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="31">
+      <c r="D11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="28" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <v>3</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="27">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27">
-        <v>1</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="31">
+      <c r="D12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="28" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A3:C3 M2:XFD6 A9:A12 A15:XFD1048576 A8:B8 A4:G6 A2:G2 A7:H7 H8 A13:H14 J7:XFD14 G9:H12">
-    <cfRule type="cellIs" dxfId="64" priority="20" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="55" priority="20" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="63" priority="16" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="16" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="62" priority="15" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="15" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="61" priority="7" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="7" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="60" priority="13" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="13" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:F12">
-    <cfRule type="cellIs" dxfId="59" priority="11" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="11" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C12">
-    <cfRule type="cellIs" dxfId="58" priority="10" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="10" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="57" priority="9" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="9" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="56" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="55" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="46" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="54" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="53" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4654,10 +4810,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="B2:I39"/>
+  <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4675,56 +4831,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>150228</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>150331</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="24">
         <v>1</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="28">
         <f>AVERAGE(D4:F4)</f>
         <v>1</v>
       </c>
@@ -4732,22 +4888,22 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>1</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="28">
         <f>AVERAGE(D5:F5)</f>
         <v>1</v>
       </c>
@@ -4755,22 +4911,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="27">
-        <v>1</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <f>AVERAGE(D6:F6)</f>
         <v>1</v>
       </c>
@@ -4778,123 +4934,148 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="4"/>
+      <c r="B7" s="20">
+        <v>4</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="28">
+        <f>AVERAGE(D7:F7)</f>
+        <v>1</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>8</v>
-      </c>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="33">
-        <v>150227</v>
-      </c>
-      <c r="E9" s="21">
-        <v>150331</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="30"/>
+    <row r="9" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
-        <v>1</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="26">
-        <v>1</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="29">
-        <f t="shared" ref="G10:G12" si="0">AVERAGE(D10:F10)</f>
-        <v>1</v>
-      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="30">
+        <v>150227</v>
+      </c>
+      <c r="E10" s="18">
+        <v>150331</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="27"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="26" t="e">
+        <f t="shared" ref="G11:G13" si="0">AVERAGE(D11:F11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
         <v>2</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="26">
-        <v>1</v>
-      </c>
-      <c r="E11" s="26">
-        <v>1</v>
-      </c>
-      <c r="F11" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
-        <v>3</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="26" t="s">
+      <c r="E12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="29" t="e">
+      <c r="G12" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="20">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
-    </row>
-    <row r="31" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-    </row>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="32" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
     </row>
@@ -4915,108 +5096,121 @@
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
     </row>
   </sheetData>
   <sortState ref="C29:D36">
     <sortCondition descending="1" ref="C29"/>
   </sortState>
-  <conditionalFormatting sqref="J2:XFD10 A2:A11 H2:I3 H11:XFD11 A13:XFD14 A18:XFD1048576 A15:B17 D15:XFD17">
-    <cfRule type="cellIs" dxfId="51" priority="26" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="J2:XFD11 A2:A12 H2:I3 H12:XFD12 A14:XFD15 A19:XFD1048576 A16:B18 D16:XFD18">
+    <cfRule type="cellIs" dxfId="41" priority="28" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3 B8 B2:D2 B7:G7 G9:G12 C4:G6 F2:G2">
-    <cfRule type="cellIs" dxfId="50" priority="25" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="49" priority="22" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="48" priority="23" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="47" priority="21" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="46" priority="16" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D12">
-    <cfRule type="cellIs" dxfId="45" priority="20" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="C3 B9 B2:D2 G10:G13 C4:G6 F2:G2">
+    <cfRule type="cellIs" dxfId="40" priority="27" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="44" priority="19" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="39" priority="24" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C12">
-    <cfRule type="cellIs" dxfId="43" priority="15" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="38" priority="25" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="36" priority="18" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D13">
+    <cfRule type="cellIs" dxfId="35" priority="22" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="34" priority="21" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C13">
+    <cfRule type="cellIs" dxfId="33" priority="17" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" dxfId="42" priority="14" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B12">
-    <cfRule type="cellIs" dxfId="41" priority="13" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="B10:B13">
+    <cfRule type="cellIs" dxfId="31" priority="15" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="40" priority="12" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="14" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="39" priority="11" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F12">
-    <cfRule type="cellIs" dxfId="38" priority="10" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="E11:F13">
+    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="37" priority="9" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="11" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="36" priority="7" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="26" priority="9" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="35" priority="6" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="33" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="23" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="3" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:G8">
+    <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B8">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5053,56 +5247,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>150227</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>150331</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="24">
         <v>1</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="28">
         <f>AVERAGE(D4:F4)</f>
         <v>1</v>
       </c>
@@ -5110,22 +5304,22 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>1</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="28">
         <f>AVERAGE(D5:F5)</f>
         <v>1</v>
       </c>
@@ -5133,22 +5327,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="31" t="e">
+      <c r="G6" s="28" t="e">
         <f>AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5194,37 +5388,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:XFD7 A2:A7 H2:I3 A8:XFD9 A13:XFD1048576 A10:B12 D10:XFD12">
-    <cfRule type="cellIs" dxfId="31" priority="19" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3 B2:D2 B7:G7 C4:G6 F2:G2">
-    <cfRule type="cellIs" dxfId="30" priority="18" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" dxfId="29" priority="10" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="28" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="27" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="26" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5256,56 +5450,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <v>150227</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>150331</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <v>0.75</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="24">
         <v>1</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="28">
         <f>AVERAGE(D4:F4)</f>
         <v>0.875</v>
       </c>
@@ -5313,22 +5507,22 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>1</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="28">
         <f>AVERAGE(D5:F5)</f>
         <v>1</v>
       </c>
@@ -5336,22 +5530,22 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="31" t="e">
+      <c r="G6" s="28" t="e">
         <f>AVERAGE(D6:F6)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5397,37 +5591,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:XFD7 A2:A7 H2:I3 A8:XFD9 A13:XFD1048576 A10:B12 D10:XFD12">
-    <cfRule type="cellIs" dxfId="24" priority="9" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3 B2:D2 B7:G7 C4:G6 F2:G2">
-    <cfRule type="cellIs" dxfId="23" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5452,108 +5646,108 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="33">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="30">
         <v>150227</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>150331</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>3</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="24" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3 C2:E2 D4:G6 G2">
-    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
